--- a/att-list.xlsx
+++ b/att-list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Projetos\2022 - PosDoc\ELSA datasets and description files\R\constructed_temporal_features\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Projetos\2022 - PosDoc\ELSA datasets and description files\R\constructed_temporal_features\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="10800" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="530">
   <si>
     <t>&gt; str(data_core, list.len = ncol(data_core))</t>
   </si>
@@ -1720,6 +1720,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6378,19 +6381,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -6398,59 +6405,62 @@
         <v>287</v>
       </c>
       <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>290</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>291</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>292</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>293</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>294</v>
       </c>
-      <c r="I1" t="s">
-        <v>295</v>
-      </c>
       <c r="J1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>241</v>
       </c>
-      <c r="J2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" t="s">
-        <v>288</v>
-      </c>
       <c r="D4" t="s">
         <v>288</v>
       </c>
@@ -6469,17 +6479,17 @@
       <c r="I4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
-        <v>288</v>
-      </c>
       <c r="D5" t="s">
         <v>288</v>
       </c>
@@ -6489,40 +6499,40 @@
       <c r="F5" t="s">
         <v>288</v>
       </c>
-      <c r="I5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>244</v>
       </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
       <c r="E6" t="s">
         <v>288</v>
       </c>
       <c r="F6" t="s">
         <v>288</v>
       </c>
-      <c r="I6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" t="s">
-        <v>288</v>
-      </c>
       <c r="D7" t="s">
         <v>288</v>
       </c>
@@ -6541,17 +6551,17 @@
       <c r="I7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>246</v>
       </c>
-      <c r="C8" t="s">
-        <v>288</v>
-      </c>
       <c r="D8" t="s">
         <v>288</v>
       </c>
@@ -6570,17 +6580,17 @@
       <c r="I8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>247</v>
       </c>
-      <c r="C9" t="s">
-        <v>288</v>
-      </c>
       <c r="D9" t="s">
         <v>288</v>
       </c>
@@ -6599,17 +6609,17 @@
       <c r="I9" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>252</v>
       </c>
-      <c r="E10" t="s">
-        <v>288</v>
-      </c>
       <c r="F10" t="s">
         <v>288</v>
       </c>
@@ -6622,17 +6632,17 @@
       <c r="I10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>253</v>
       </c>
-      <c r="E11" t="s">
-        <v>288</v>
-      </c>
       <c r="F11" t="s">
         <v>288</v>
       </c>
@@ -6645,17 +6655,17 @@
       <c r="I11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>254</v>
       </c>
-      <c r="C12" t="s">
-        <v>288</v>
-      </c>
       <c r="D12" t="s">
         <v>288</v>
       </c>
@@ -6674,17 +6684,17 @@
       <c r="I12" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
       <c r="D13" t="s">
         <v>288</v>
       </c>
@@ -6703,17 +6713,17 @@
       <c r="I13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>256</v>
       </c>
-      <c r="C14" t="s">
-        <v>288</v>
-      </c>
       <c r="D14" t="s">
         <v>288</v>
       </c>
@@ -6732,17 +6742,17 @@
       <c r="I14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>257</v>
       </c>
-      <c r="E15" t="s">
-        <v>288</v>
-      </c>
       <c r="F15" t="s">
         <v>288</v>
       </c>
@@ -6755,17 +6765,17 @@
       <c r="I15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>258</v>
       </c>
-      <c r="C16" t="s">
-        <v>288</v>
-      </c>
       <c r="D16" t="s">
         <v>288</v>
       </c>
@@ -6784,21 +6794,21 @@
       <c r="I16" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>259</v>
       </c>
-      <c r="C17" t="s">
-        <v>288</v>
-      </c>
       <c r="D17" t="s">
         <v>288</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>288</v>
       </c>
       <c r="G17" t="s">
@@ -6810,28 +6820,28 @@
       <c r="I17" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>260</v>
       </c>
-      <c r="E18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>261</v>
       </c>
-      <c r="F19" t="s">
-        <v>288</v>
-      </c>
       <c r="G19" t="s">
         <v>288</v>
       </c>
@@ -6841,17 +6851,17 @@
       <c r="I19" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>262</v>
       </c>
-      <c r="C20" t="s">
-        <v>288</v>
-      </c>
       <c r="D20" t="s">
         <v>288</v>
       </c>
@@ -6870,17 +6880,17 @@
       <c r="I20" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>263</v>
       </c>
-      <c r="C21" t="s">
-        <v>288</v>
-      </c>
       <c r="D21" t="s">
         <v>288</v>
       </c>
@@ -6899,17 +6909,17 @@
       <c r="I21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>264</v>
       </c>
-      <c r="C22" t="s">
-        <v>288</v>
-      </c>
       <c r="D22" t="s">
         <v>288</v>
       </c>
@@ -6928,17 +6938,17 @@
       <c r="I22" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>265</v>
       </c>
-      <c r="E23" t="s">
-        <v>288</v>
-      </c>
       <c r="F23" t="s">
         <v>288</v>
       </c>
@@ -6951,17 +6961,17 @@
       <c r="I23" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>266</v>
       </c>
-      <c r="E24" t="s">
-        <v>288</v>
-      </c>
       <c r="F24" t="s">
         <v>288</v>
       </c>
@@ -6974,17 +6984,17 @@
       <c r="I24" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>267</v>
       </c>
-      <c r="C25" t="s">
-        <v>288</v>
-      </c>
       <c r="D25" t="s">
         <v>288</v>
       </c>
@@ -7003,17 +7013,17 @@
       <c r="I25" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>268</v>
       </c>
-      <c r="C26" t="s">
-        <v>288</v>
-      </c>
       <c r="D26" t="s">
         <v>288</v>
       </c>
@@ -7032,17 +7042,17 @@
       <c r="I26" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>269</v>
       </c>
-      <c r="E27" t="s">
-        <v>288</v>
-      </c>
       <c r="F27" t="s">
         <v>288</v>
       </c>
@@ -7055,17 +7065,17 @@
       <c r="I27" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>270</v>
       </c>
-      <c r="E28" t="s">
-        <v>288</v>
-      </c>
       <c r="F28" t="s">
         <v>288</v>
       </c>
@@ -7078,17 +7088,17 @@
       <c r="I28" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>271</v>
       </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
       <c r="D29" t="s">
         <v>288</v>
       </c>
@@ -7107,28 +7117,28 @@
       <c r="I29" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>272</v>
       </c>
-      <c r="C30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>273</v>
       </c>
-      <c r="D31" t="s">
-        <v>288</v>
-      </c>
       <c r="E31" t="s">
         <v>288</v>
       </c>
@@ -7144,17 +7154,17 @@
       <c r="I31" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>274</v>
       </c>
-      <c r="C32" t="s">
-        <v>288</v>
-      </c>
       <c r="D32" t="s">
         <v>288</v>
       </c>
@@ -7171,6 +7181,9 @@
         <v>288</v>
       </c>
       <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7181,10 +7194,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,12 +7321,7 @@
       <c r="F5" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -7331,12 +7342,7 @@
       <c r="F6" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -8287,10 +8293,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="A1:H32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8411,12 +8420,7 @@
       <c r="F5" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -8437,12 +8441,7 @@
       <c r="F6" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -9393,6 +9392,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10230,9 +10232,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
